--- a/medicine/Sexualité et sexologie/Association_pour_les_loisirs_et_l'amusement/Association_pour_les_loisirs_et_l'amusement.xlsx
+++ b/medicine/Sexualité et sexologie/Association_pour_les_loisirs_et_l'amusement/Association_pour_les_loisirs_et_l'amusement.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Association_pour_les_loisirs_et_l%27amusement</t>
+          <t>Association_pour_les_loisirs_et_l'amusement</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Association pour les loisirs et l'amusement (特殊慰安施設協会, tokushu-ian-shisetsu-kyōkai?), ou plus littéralement Association spéciale pour la facilité du confort, était l'euphémisme officiel pour désigner les centres de prostitution mis en place par le gouvernement japonais pour occuper les soldats américains pendant l'occupation du Japon. Elle exista du 28 août 1945 jusqu'à sa fermeture en janvier 1946.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Association_pour_les_loisirs_et_l%27amusement</t>
+          <t>Association_pour_les_loisirs_et_l'amusement</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'association fut fondée le 28 août 1945 par le ministère des Affaires intérieures et une organisation civile avec des investissements conjoints (50 millions de yens chacun), officiellement pour contenir les pulsions sexuelles des forces d'occupation, protéger la population japonaise des viols et préserver la pureté de la « race japonaise ». La déclaration officielle du 19 août 1945 déclarait que « Grâce au sacrifice de milliers d'Okichis de l'ère Shōwa, nous allons construire une barrière pour retenir la frénésie des forces d'occupations et cultiver et préserver la pureté de notre race pour les siècles à venir... ». Le slogan de l'association était : « Pour le pays, un brise-lame sexuel pour protéger les femmes japonaises » (お国のために日本女性を守る性の防波堤?).
 En septembre, le système fut étendu pour couvrir l'ensemble du pays. Les forces alliées d'occupation prirent le contrôle de ces institutions (22 centres de prostitution) le 28 septembre à cause de fréquents cas de viol de la part des soldats alliés. 
